--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -17,12 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>erinc.suluk@net-effect.com</t>
-  </si>
-  <si>
-    <t>Welcome@81Ch@ng3</t>
-  </si>
-  <si>
     <t>homepageURL</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>https://productcentral-qa.products.pwc.com/us/en/homepage.html</t>
+  </si>
+  <si>
+    <t>erincbaser@gmail.com</t>
+  </si>
+  <si>
+    <t>Ege123/.</t>
   </si>
 </sst>
 </file>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,130 +477,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,11 +608,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
+    <sheet name="Tag Taxonomy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A10:J24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>homepageURL</t>
   </si>
@@ -107,17 +108,251 @@
     <t>https://productcentral-qa.products.pwc.com/us/en/homepage.html</t>
   </si>
   <si>
-    <t>erincbaser@gmail.com</t>
-  </si>
-  <si>
-    <t>Ege123/.</t>
+    <t>Offering Overview</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Maintenance &amp; Support</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Hosted Software Terms</t>
+  </si>
+  <si>
+    <t>Patent Marking</t>
+  </si>
+  <si>
+    <t>SMS Terms &amp; Acceptable Use Policy</t>
+  </si>
+  <si>
+    <t>Data Processing Addendum</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>erinc.suluk@net-effect.com</t>
+  </si>
+  <si>
+    <t>ovunc123/</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/sitemapfortesting.html</t>
+  </si>
+  <si>
+    <t>sitemapLink</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/sites.html/content/pc/us/en/automation</t>
+  </si>
+  <si>
+    <t>automationPackage</t>
+  </si>
+  <si>
+    <t>sitemapPublisherLink</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/sitemapfortesting.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/legal.html</t>
+  </si>
+  <si>
+    <t>legalPageAuthor</t>
+  </si>
+  <si>
+    <t>contentPageAuthor</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/us/en/automation/products/cloud/offering-overview.html</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>Tool License Terms</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Evaluation License</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>ProductFeature</t>
+  </si>
+  <si>
+    <t>Check-in</t>
+  </si>
+  <si>
+    <t>Change Navigator</t>
+  </si>
+  <si>
+    <t>Costumer Link</t>
+  </si>
+  <si>
+    <t>Digital on Demand</t>
+  </si>
+  <si>
+    <t>Digital Operations Portal</t>
+  </si>
+  <si>
+    <t>Disclosure Checklist</t>
+  </si>
+  <si>
+    <t>Enterprise Control</t>
+  </si>
+  <si>
+    <t>Financial Wellness</t>
+  </si>
+  <si>
+    <t>Fluid Forecast</t>
+  </si>
+  <si>
+    <t>Insights Platform</t>
+  </si>
+  <si>
+    <t>Insights Officer</t>
+  </si>
+  <si>
+    <t>Interactions Hub</t>
+  </si>
+  <si>
+    <t>International Tax View</t>
+  </si>
+  <si>
+    <t>LDTI E-Learns</t>
+  </si>
+  <si>
+    <t>Listen Platform</t>
+  </si>
+  <si>
+    <t>Master Data Management</t>
+  </si>
+  <si>
+    <t>Media Intelligence</t>
+  </si>
+  <si>
+    <t>Model Edge</t>
+  </si>
+  <si>
+    <t>Origin Compliance</t>
+  </si>
+  <si>
+    <t>Partner Hub</t>
+  </si>
+  <si>
+    <t>Performance Analyzer</t>
+  </si>
+  <si>
+    <t>ProEdge</t>
+  </si>
+  <si>
+    <t>Ready Assess</t>
+  </si>
+  <si>
+    <t>Risk Detect - ABAC</t>
+  </si>
+  <si>
+    <t>Saratoga</t>
+  </si>
+  <si>
+    <t>Third Party Tracker</t>
+  </si>
+  <si>
+    <t>Transparency Hub</t>
+  </si>
+  <si>
+    <t>Workforce Architect</t>
+  </si>
+  <si>
+    <t>Workforce Orchestrator</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Customer engagement</t>
+  </si>
+  <si>
+    <t>Operational improvement</t>
+  </si>
+  <si>
+    <t>Risk mitigation</t>
+  </si>
+  <si>
+    <t>Strategic intelligence</t>
+  </si>
+  <si>
+    <t>Workforce experience</t>
+  </si>
+  <si>
+    <t>MyProductDoc</t>
+  </si>
+  <si>
+    <t>User Guide</t>
+  </si>
+  <si>
+    <t>Quick Reference Guide</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Technical Guide</t>
+  </si>
+  <si>
+    <t>Product Overview</t>
+  </si>
+  <si>
+    <t>Comms Materials</t>
+  </si>
+  <si>
+    <t>Product Materials</t>
+  </si>
+  <si>
+    <t>ContentType</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Audience</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t>cloudPublish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +364,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,9 +398,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,15 +708,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="111.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,10 +730,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +849,52 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -617,4 +907,289 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>homepageURL</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>cloudPublish</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/assets.html/content/dam/productcentral/general/content-pdf</t>
+  </si>
+  <si>
+    <t>assetPageforPDF</t>
   </si>
 </sst>
 </file>
@@ -708,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +900,14 @@
       </c>
       <c r="B22" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>homepageURL</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>assetPageforPDF</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/sites.html/content/pc/us/en/automation/reseller-relationship/langing-page</t>
+  </si>
+  <si>
+    <t>resellerLandingPage</t>
   </si>
 </sst>
 </file>
@@ -714,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +914,14 @@
       </c>
       <c r="B23" s="1" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tag Taxonomy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A10:J24"/>
+  <oleSize ref="A10:E24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
   <si>
     <t>homepageURL</t>
   </si>
@@ -358,13 +358,103 @@
   </si>
   <si>
     <t>resellerLandingPage</t>
+  </si>
+  <si>
+    <t>mockEmail</t>
+  </si>
+  <si>
+    <t>123@gmail.com</t>
+  </si>
+  <si>
+    <t>mockFirstName</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>mockLastName</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>authFooter</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products</t>
+  </si>
+  <si>
+    <t>myproductsAuth</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/conf/pc/settings/wcm/templates/product-page-template-product-central/structure.html</t>
+  </si>
+  <si>
+    <t>PwC's home for information on legal terms &amp; conditions, security, and compliance for our licensed products.</t>
+  </si>
+  <si>
+    <t>DescriptionOfPromotion Banner</t>
+  </si>
+  <si>
+    <t>One stop shop, for all your Product needs</t>
+  </si>
+  <si>
+    <t>Home Page Title</t>
+  </si>
+  <si>
+    <t>Footer Text</t>
+  </si>
+  <si>
+    <t>PwC. All rights reserved. PwC refers to the US member firm of the PwC network or one of its subsidiaries or affiliates.</t>
+  </si>
+  <si>
+    <t>PDF Template for AEM Testing</t>
+  </si>
+  <si>
+    <t>Last updated 01/09/2023</t>
+  </si>
+  <si>
+    <t>Microsoft Word - PricewaterhouseCoopers.docx</t>
+  </si>
+  <si>
+    <t>Last updated 11/03/2022</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/my-products/product-4.html#</t>
+  </si>
+  <si>
+    <t>Go to Client View Link</t>
+  </si>
+  <si>
+    <t>Expected URL on a New Tab</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/dam/productcentral/en_us/products/product-2/myproducts/sample10.pdf.coredownload.inline.pdf</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/my-products/product-3.html</t>
+  </si>
+  <si>
+    <t>Error Page URL</t>
+  </si>
+  <si>
+    <t>Error Message Description</t>
+  </si>
+  <si>
+    <t>You do not have access to this page. Please contact our support team for further assistance. (Link to service now where user can submit a ticket)</t>
+  </si>
+  <si>
+    <t>403- Forbidden Access</t>
+  </si>
+  <si>
+    <t>Error Message Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +478,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -410,11 +506,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -720,16 +817,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="111.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="143.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,6 +1019,126 @@
       </c>
       <c r="B24" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -932,8 +1149,11 @@
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B14" r:id="rId5"/>
     <hyperlink ref="A2" r:id="rId6"/>
+    <hyperlink ref="B25" r:id="rId7"/>
+    <hyperlink ref="B29" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
   <si>
     <t>homepageURL</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>Error Message Title</t>
+  </si>
+  <si>
+    <t>rgba(65, 83, 133, 1)</t>
+  </si>
+  <si>
+    <t>Active Tab Color</t>
   </si>
 </sst>
 </file>
@@ -817,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,6 +1145,14 @@
       </c>
       <c r="B39" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>homepageURL</t>
   </si>
@@ -448,6 +448,18 @@
   </si>
   <si>
     <t>Error Message Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mock Footer Text </t>
+  </si>
+  <si>
+    <t>PwC. All rights reserved. PwC refers to the US member firm of the PwC network or one of its subsidiaries or .</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/sites.html/content/pc/us/en/automation/my-products</t>
+  </si>
+  <si>
+    <t>My Products Author</t>
   </si>
 </sst>
 </file>
@@ -817,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,6 +1151,22 @@
       </c>
       <c r="B39" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>homepageURL</t>
   </si>
@@ -411,9 +411,6 @@
     <t>PDF Template for AEM Testing</t>
   </si>
   <si>
-    <t>Last updated 01/09/2023</t>
-  </si>
-  <si>
     <t>Microsoft Word - PricewaterhouseCoopers.docx</t>
   </si>
   <si>
@@ -454,6 +451,21 @@
   </si>
   <si>
     <t>Active Tab Color</t>
+  </si>
+  <si>
+    <t>PwC. All rights reserved. PwC refers to the US member firm of the PwC network or one of its subsidiaries or.</t>
+  </si>
+  <si>
+    <t>Mock footer</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/sites.html/content/pc/us/en/automation/my-products</t>
+  </si>
+  <si>
+    <t>My product auth</t>
+  </si>
+  <si>
+    <t>Last updated 01/20/2023</t>
   </si>
 </sst>
 </file>
@@ -823,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,63 +1108,79 @@
         <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
         <v>132</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
         <v>136</v>
-      </c>
-      <c r="B36" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
         <v>140</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
         <v>145</v>
       </c>
-      <c r="B40" t="s">
-        <v>144</v>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>homepageURL</t>
   </si>
@@ -45,9 +45,6 @@
     <t>productsPage</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/us/en/automation/products.html</t>
-  </si>
-  <si>
     <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/fluid-forecast.html</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>legalPage</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/legal.html</t>
-  </si>
-  <si>
     <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/homepage-demo.html</t>
   </si>
   <si>
@@ -466,6 +460,15 @@
   </si>
   <si>
     <t>Last updated 01/20/2023</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/automation/products/cloud/offering-overview.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/automation/legal/maintenance---support.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/products.html</t>
   </si>
 </sst>
 </file>
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,10 +860,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,10 +884,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,287 +903,287 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1188,14 +1191,13 @@
     <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B14" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="B25" r:id="rId7"/>
-    <hyperlink ref="B29" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId5"/>
+    <hyperlink ref="B25" r:id="rId6"/>
+    <hyperlink ref="B29" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1219,263 +1221,263 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="Tag Taxonomy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A10:E24"/>
+  <oleSize ref="A1:K15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>homepageURL</t>
   </si>
@@ -90,9 +90,6 @@
     <t>ums</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/products.html</t>
-  </si>
-  <si>
     <t>productslisting</t>
   </si>
   <si>
@@ -469,6 +466,15 @@
   </si>
   <si>
     <t>https://productcentral-qa.products.pwc.com/us/en/products.html</t>
+  </si>
+  <si>
+    <t>Privacy &amp; Security</t>
+  </si>
+  <si>
+    <t>Resell Offering Overview</t>
+  </si>
+  <si>
+    <t>Bookkeeping Connect</t>
   </si>
 </sst>
 </file>
@@ -840,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,10 +866,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +893,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,63 +970,63 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1028,162 +1034,162 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
         <v>114</v>
-      </c>
-      <c r="B26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
         <v>116</v>
-      </c>
-      <c r="B27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
         <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
         <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
         <v>133</v>
-      </c>
-      <c r="B36" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
         <v>137</v>
-      </c>
-      <c r="B38" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1203,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,263 +1227,274 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>85</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="Tag Taxonomy" sheetId="2" r:id="rId2"/>
+    <sheet name="STG" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K15"/>
+  <oleSize ref="A31:E45"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="159">
   <si>
     <t>homepageURL</t>
   </si>
@@ -474,7 +475,25 @@
     <t>Resell Offering Overview</t>
   </si>
   <si>
-    <t>Bookkeeping Connect</t>
+    <t>https://productcentral-stg.products.pwc.com/</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/us/en/products/bookkeeping-connect/offeringoverview.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/us/en/resell-alliances.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/us/en/legal.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/us/en/security.html</t>
+  </si>
+  <si>
+    <t>https://ums-productcentral-stg.pwc.com/</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/us/en/products.html</t>
   </si>
 </sst>
 </file>
@@ -846,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1492,13 +1511,209 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>152</v>
-      </c>
-    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="136.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B25" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="STG" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A31:E45"/>
+  <oleSize ref="A1:K15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
   <si>
     <t>homepageURL</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>https://productcentral-stg.products.pwc.com/us/en/products.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/legal.html</t>
+  </si>
+  <si>
+    <t>legalPublisher</t>
   </si>
 </sst>
 </file>
@@ -863,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B40"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,6 +1215,14 @@
       </c>
       <c r="B42" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1522,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:B40"/>
     </sheetView>
   </sheetViews>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="STG" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K15"/>
+  <oleSize ref="A31:E45"/>
 </workbook>
 </file>
 
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -1244,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B510B-058A-42A6-B328-DFEA5E5D9D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="Tag Taxonomy" sheetId="2" r:id="rId2"/>
     <sheet name="STG" sheetId="3" r:id="rId3"/>
+    <sheet name="PRO" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A31:E45"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="221">
   <si>
     <t>homepageURL</t>
   </si>
@@ -277,21 +278,6 @@
     <t>Portfolio</t>
   </si>
   <si>
-    <t>Customer engagement</t>
-  </si>
-  <si>
-    <t>Operational improvement</t>
-  </si>
-  <si>
-    <t>Risk mitigation</t>
-  </si>
-  <si>
-    <t>Strategic intelligence</t>
-  </si>
-  <si>
-    <t>Workforce experience</t>
-  </si>
-  <si>
     <t>MyProductDoc</t>
   </si>
   <si>
@@ -500,12 +486,207 @@
   </si>
   <si>
     <t>legalPublisher</t>
+  </si>
+  <si>
+    <t>erinc.suluk@pwc.com</t>
+  </si>
+  <si>
+    <t>contentPDF</t>
+  </si>
+  <si>
+    <t>PWC-email</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/us/en/homepage.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/products.html</t>
+  </si>
+  <si>
+    <t>https://ums-productcentral.pwc.com/</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/security.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/legal.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/resell-alliances.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/products/bookkeeping-connect/offeringoverview.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/homepage.html</t>
+  </si>
+  <si>
+    <t>One-stop-shop, for all your Products' needs</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/products/cloud.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/conf/pc/settings/wcm/templates/home-page-template-product-central/structure.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/fluid-forecast.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/homepage-demo.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/sitemapfortesting.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/my-products/product-2.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/sites.html/content/pc/us/en/automation</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/automation/sitemapfortesting.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/legal.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/automation/products/cloud.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/assets.html/content/dam/productcentral/general/content-pdf</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/sites.html/content/pc/us/en/automation/reseller-relationship/langing-page</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/conf/pc/settings/wcm/templates/product-page-template-product-central/structure.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/my-products/product-4.html#</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/dam/productcentral/en_us/products/product-2/myproducts/sample10.pdf.coredownload.inline.pdf</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/my-products/product-3.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/sites.html/content/pc/us/en/automation/my-products</t>
+  </si>
+  <si>
+    <t>Customer Engagement</t>
+  </si>
+  <si>
+    <t>Operational Improvement</t>
+  </si>
+  <si>
+    <t>Risk Mitigation</t>
+  </si>
+  <si>
+    <t>Strategic Intelligence</t>
+  </si>
+  <si>
+    <t>Workforce Experience</t>
+  </si>
+  <si>
+    <t>Finance Intelligence</t>
+  </si>
+  <si>
+    <t>One Stop Shop, for all your Product needs</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/assets.html/content/dam/productcentral/en_us/products/check-in/myproducts</t>
+  </si>
+  <si>
+    <t>Resell Alliances</t>
+  </si>
+  <si>
+    <t>On-Premises Software Terms</t>
+  </si>
+  <si>
+    <t>Resell Data Processing addendum</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/products/cloud/offering-overview.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/master.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/privacy-hub.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/assets.html/content/dam/productcentral/en_us/products/change-navigator</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/us/en/products/change-navigator/offeringoverview.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/products/change-navigator.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/productcentral/us/en/site/experience-fragment</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/dam/productcentral/en_us/products/change-navigator/Change%20Navigator%20-%20OSS%20Notices.pdf</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/mnt/overlay/wcm/core/content/sites/createpagewizard.html/content/pc/us/en/automation/my-products</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/footer.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/qa-sanity-folder/check-in.html</t>
+  </si>
+  <si>
+    <t>Board Central</t>
+  </si>
+  <si>
+    <t>Entity Ops</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/automation/privacy-hub.html</t>
+  </si>
+  <si>
+    <t>https://ums-productcentral-stg.pwc.com/ums</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/sites.html/content/pc/us/en/automation/my-products/check-in</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/child-check-in.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/assets.html/content/dam/productcentral/en_us/products/entity-ops</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/aem/inbox</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,6 +839,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -693,6 +891,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -868,11 +1083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +1133,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,7 +1266,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1059,193 +1274,210 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B14" r:id="rId4"/>
-    <hyperlink ref="A2" r:id="rId5"/>
-    <hyperlink ref="B25" r:id="rId6"/>
-    <hyperlink ref="B29" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,13 +1501,13 @@
         <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,16 +1518,16 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,16 +1538,16 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,10 +1575,10 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,10 +1589,10 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1370,8 +1602,11 @@
       <c r="B7" t="s">
         <v>61</v>
       </c>
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,8 +1616,11 @@
       <c r="B8" t="s">
         <v>62</v>
       </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,7 +1689,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -1459,23 +1697,32 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
       <c r="B19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
       <c r="B20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
       <c r="B21" t="s">
         <v>75</v>
       </c>
@@ -1525,7 +1772,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1533,11 +1789,565 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="205" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B45" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B43" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B28" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="B35" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B36" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="B37" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B42" r:id="rId26" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="B46" r:id="rId27" xr:uid="{D405DD8A-1D70-49DC-94FB-0F83CB8F1A2D}"/>
+    <hyperlink ref="B47" r:id="rId28" xr:uid="{BC541B77-31AF-4312-9D99-45A3810C0876}"/>
+    <hyperlink ref="B48" r:id="rId29" xr:uid="{FA5E4957-738E-4433-82EB-834A1648997B}"/>
+    <hyperlink ref="B49" r:id="rId30" xr:uid="{C334B997-0D61-4A2A-83C9-19E9DAE4A0B8}"/>
+    <hyperlink ref="B50" r:id="rId31" xr:uid="{6E3BE590-62F4-453F-A822-2C1582C0E1A9}"/>
+    <hyperlink ref="B51" r:id="rId32" xr:uid="{B797629D-8AC9-42F8-B9C8-CD228C81C5C4}"/>
+    <hyperlink ref="B52" r:id="rId33" xr:uid="{FCCC138F-CACC-4479-B88B-0ADCD750C201}"/>
+    <hyperlink ref="B53" r:id="rId34" xr:uid="{39D88976-F6FB-4AD4-B183-931F224B8826}"/>
+    <hyperlink ref="B55" r:id="rId35" xr:uid="{BD720572-0599-4615-A364-CADF4456139B}"/>
+    <hyperlink ref="B73" r:id="rId36" xr:uid="{9DBDD393-2EE3-4EA8-B3CD-3310FB44EF1F}"/>
+    <hyperlink ref="B74" r:id="rId37" xr:uid="{ED603BA7-1D42-4015-B6A7-567C49DF5796}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,167 +2376,366 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>152</v>
+      <c r="B3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>153</v>
+      <c r="B5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>149</v>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>154</v>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>155</v>
+      <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>156</v>
+      <c r="B12" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>157</v>
+      <c r="B14" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>158</v>
+      <c r="B15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="B27" t="s">
-        <v>116</v>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
         <v>128</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B25" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B45" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B44" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B43" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B10" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B7" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="B5" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="B3" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B510B-058A-42A6-B328-DFEA5E5D9D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DEE914-7CD9-43D2-91BF-E034C8539607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="222">
   <si>
     <t>homepageURL</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/not-top-level.html</t>
   </si>
 </sst>
 </file>
@@ -1790,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,6 +2298,11 @@
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B510B-058A-42A6-B328-DFEA5E5D9D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD8B109-E5F4-413D-A7E3-9E3D949B0C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="222">
   <si>
     <t>homepageURL</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/not-top-level.html</t>
   </si>
 </sst>
 </file>
@@ -1790,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,6 +2298,11 @@
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DEE914-7CD9-43D2-91BF-E034C8539607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFAB881-41DC-4862-88B1-07AAF724E8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="223">
   <si>
     <t>homepageURL</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/not-top-level.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/ihub.html</t>
   </si>
 </sst>
 </file>
@@ -1793,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,6 +2306,11 @@
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFAB881-41DC-4862-88B1-07AAF724E8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88890A6A-8202-469E-824A-557680497399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="224">
   <si>
     <t>homepageURL</t>
   </si>
@@ -687,6 +687,9 @@
   </si>
   <si>
     <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/ihub.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/video-component.html</t>
   </si>
 </sst>
 </file>
@@ -1796,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,6 +2314,11 @@
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88890A6A-8202-469E-824A-557680497399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC056041-E215-4D1F-AE25-1F8FB8F10C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="231">
   <si>
     <t>homepageURL</t>
   </si>
@@ -690,6 +690,27 @@
   </si>
   <si>
     <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/video-component.html</t>
+  </si>
+  <si>
+    <t>Bookkeeping Connect</t>
+  </si>
+  <si>
+    <t>Global Entertainment and Media Outlook</t>
+  </si>
+  <si>
+    <t>Risk Detect</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>Strategic Cost Intelligence</t>
+  </si>
+  <si>
+    <t>Terrain Insights</t>
+  </si>
+  <si>
+    <t>Resell Alliance Terms</t>
   </si>
 </sst>
 </file>
@@ -1483,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,6 +1758,9 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>230</v>
+      </c>
       <c r="B22" t="s">
         <v>76</v>
       </c>
@@ -1789,6 +1813,36 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC056041-E215-4D1F-AE25-1F8FB8F10C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619D342D-05B9-4F9F-9D43-C9A6BEE7E5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="232">
   <si>
     <t>homepageURL</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>Resell Alliance Terms</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/mnt/overlay/dam/gui/content/assets/metadataeditor.external.html?item=/content/dam/productcentral/en_us/products/transparency-hub/myproducts/Transparency%20Hub%20Release%204_2%20User%20Guide.pdf&amp;_charset_=utf-8</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1853,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,6 +2376,11 @@
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
